--- a/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ქობულეთი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ქობულეთი.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\აჭარა ა.რ. +\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\სასტუმროები\სტუმრები\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB4DDC-CD96-4386-920C-5752E82C5BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27915" windowHeight="7335"/>
+    <workbookView xWindow="31425" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქობულეთი" sheetId="1" r:id="rId1"/>
@@ -68,13 +69,13 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხელვაჩაურის მუნიციპალიტეტი</t>
+    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ქობულეთის მუნიციპალიტეტი</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,12 +241,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,63 +258,60 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -323,29 +321,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal_სტუმრები" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_სტუმრები" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,154 +620,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="29" customWidth="1"/>
-    <col min="2" max="4" width="20.5703125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="31" customWidth="1"/>
-    <col min="7" max="61" width="9.140625" style="17"/>
-    <col min="62" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="40.85546875" style="17" customWidth="1"/>
+    <col min="2" max="4" width="20.5703125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:61" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
       <c r="U1" s="24"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-    </row>
-    <row r="2" spans="1:61" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:61" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-    </row>
-    <row r="3" spans="1:61" s="26" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+    </row>
+    <row r="3" spans="1:61" s="25" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -844,15 +792,15 @@
       <c r="BH3" s="7"/>
       <c r="BI3" s="6"/>
     </row>
-    <row r="4" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+    <row r="4" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
         <v>2010</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -909,7 +857,7 @@
       <c r="BH4" s="22"/>
       <c r="BI4" s="8"/>
     </row>
-    <row r="5" spans="1:61" s="28" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -984,7 +932,7 @@
       <c r="BH5" s="10"/>
       <c r="BI5" s="10"/>
     </row>
-    <row r="6" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1007,7 @@
       <c r="BH6" s="12"/>
       <c r="BI6" s="12"/>
     </row>
-    <row r="7" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1082,7 @@
       <c r="BH7" s="12"/>
       <c r="BI7" s="12"/>
     </row>
-    <row r="8" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1157,7 @@
       <c r="BH8" s="12"/>
       <c r="BI8" s="12"/>
     </row>
-    <row r="9" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1232,7 @@
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
     </row>
-    <row r="10" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -1359,15 +1307,15 @@
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
     </row>
-    <row r="11" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34">
+    <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31">
         <v>2011</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1524,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -1544,72 +1492,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+    <row r="18" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
         <v>2012</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="19"/>
-      <c r="AU18" s="19"/>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="19"/>
-      <c r="BA18" s="19"/>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
-      <c r="BE18" s="19"/>
-      <c r="BF18" s="19"/>
-      <c r="BG18" s="19"/>
-      <c r="BH18" s="19"/>
-      <c r="BI18" s="19"/>
-    </row>
-    <row r="19" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
@@ -1649,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>12</v>
       </c>
@@ -1709,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>13</v>
       </c>
@@ -1729,72 +1622,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+    <row r="25" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31">
         <v>2013</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="19"/>
-      <c r="AL25" s="19"/>
-      <c r="AM25" s="19"/>
-      <c r="AN25" s="19"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="19"/>
-      <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-      <c r="BE25" s="19"/>
-      <c r="BF25" s="19"/>
-      <c r="BG25" s="19"/>
-      <c r="BH25" s="19"/>
-      <c r="BI25" s="19"/>
-    </row>
-    <row r="26" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
@@ -1834,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
@@ -1854,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>13</v>
       </c>
@@ -1914,72 +1752,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+    <row r="32" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
         <v>2014</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="19"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="19"/>
-      <c r="AK32" s="19"/>
-      <c r="AL32" s="19"/>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="19"/>
-      <c r="AO32" s="19"/>
-      <c r="AP32" s="19"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="19"/>
-      <c r="AU32" s="19"/>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
-      <c r="BA32" s="19"/>
-      <c r="BB32" s="19"/>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="19"/>
-      <c r="BE32" s="19"/>
-      <c r="BF32" s="19"/>
-      <c r="BG32" s="19"/>
-      <c r="BH32" s="19"/>
-      <c r="BI32" s="19"/>
-    </row>
-    <row r="33" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
@@ -1999,7 +1782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>10</v>
       </c>
@@ -2019,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>11</v>
       </c>
@@ -2039,7 +1822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>12</v>
       </c>
@@ -2079,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>13</v>
       </c>
@@ -2099,72 +1882,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
+    <row r="39" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
         <v>2015</v>
       </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AE39" s="19"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="19"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="19"/>
-      <c r="BA39" s="19"/>
-      <c r="BB39" s="19"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="19"/>
-      <c r="BE39" s="19"/>
-      <c r="BF39" s="19"/>
-      <c r="BG39" s="19"/>
-      <c r="BH39" s="19"/>
-      <c r="BI39" s="19"/>
-    </row>
-    <row r="40" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>7</v>
       </c>
@@ -2184,7 +1912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>10</v>
       </c>
@@ -2204,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>9</v>
       </c>
@@ -2244,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>12</v>
       </c>
@@ -2264,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>13</v>
       </c>
@@ -2284,72 +2012,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+    <row r="46" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="31">
         <v>2016</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="19"/>
-      <c r="AQ46" s="19"/>
-      <c r="AR46" s="19"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="19"/>
-      <c r="AV46" s="19"/>
-      <c r="AW46" s="19"/>
-      <c r="AX46" s="19"/>
-      <c r="AY46" s="19"/>
-      <c r="AZ46" s="19"/>
-      <c r="BA46" s="19"/>
-      <c r="BB46" s="19"/>
-      <c r="BC46" s="19"/>
-      <c r="BD46" s="19"/>
-      <c r="BE46" s="19"/>
-      <c r="BF46" s="19"/>
-      <c r="BG46" s="19"/>
-      <c r="BH46" s="19"/>
-      <c r="BI46" s="19"/>
-    </row>
-    <row r="47" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>7</v>
       </c>
@@ -2369,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>11</v>
       </c>
@@ -2409,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +2102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>12</v>
       </c>
@@ -2449,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>13</v>
       </c>
@@ -2469,72 +2142,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
+    <row r="53" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31">
         <v>2017</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="19"/>
-      <c r="Z53" s="19"/>
-      <c r="AA53" s="19"/>
-      <c r="AB53" s="19"/>
-      <c r="AC53" s="19"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="19"/>
-      <c r="AF53" s="19"/>
-      <c r="AG53" s="19"/>
-      <c r="AH53" s="19"/>
-      <c r="AI53" s="19"/>
-      <c r="AJ53" s="19"/>
-      <c r="AK53" s="19"/>
-      <c r="AL53" s="19"/>
-      <c r="AM53" s="19"/>
-      <c r="AN53" s="19"/>
-      <c r="AO53" s="19"/>
-      <c r="AP53" s="19"/>
-      <c r="AQ53" s="19"/>
-      <c r="AR53" s="19"/>
-      <c r="AS53" s="19"/>
-      <c r="AT53" s="19"/>
-      <c r="AU53" s="19"/>
-      <c r="AV53" s="19"/>
-      <c r="AW53" s="19"/>
-      <c r="AX53" s="19"/>
-      <c r="AY53" s="19"/>
-      <c r="AZ53" s="19"/>
-      <c r="BA53" s="19"/>
-      <c r="BB53" s="19"/>
-      <c r="BC53" s="19"/>
-      <c r="BD53" s="19"/>
-      <c r="BE53" s="19"/>
-      <c r="BF53" s="19"/>
-      <c r="BG53" s="19"/>
-      <c r="BH53" s="19"/>
-      <c r="BI53" s="19"/>
-    </row>
-    <row r="54" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>7</v>
       </c>
@@ -2554,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>10</v>
       </c>
@@ -2574,7 +2192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>11</v>
       </c>
@@ -2594,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>9</v>
       </c>
@@ -2614,7 +2232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>12</v>
       </c>
@@ -2634,7 +2252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>13</v>
       </c>
@@ -2654,72 +2272,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="34">
+    <row r="60" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="31">
         <v>2018</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="19"/>
-      <c r="V60" s="19"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="19"/>
-      <c r="Y60" s="19"/>
-      <c r="Z60" s="19"/>
-      <c r="AA60" s="19"/>
-      <c r="AB60" s="19"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="19"/>
-      <c r="AK60" s="19"/>
-      <c r="AL60" s="19"/>
-      <c r="AM60" s="19"/>
-      <c r="AN60" s="19"/>
-      <c r="AO60" s="19"/>
-      <c r="AP60" s="19"/>
-      <c r="AQ60" s="19"/>
-      <c r="AR60" s="19"/>
-      <c r="AS60" s="19"/>
-      <c r="AT60" s="19"/>
-      <c r="AU60" s="19"/>
-      <c r="AV60" s="19"/>
-      <c r="AW60" s="19"/>
-      <c r="AX60" s="19"/>
-      <c r="AY60" s="19"/>
-      <c r="AZ60" s="19"/>
-      <c r="BA60" s="19"/>
-      <c r="BB60" s="19"/>
-      <c r="BC60" s="19"/>
-      <c r="BD60" s="19"/>
-      <c r="BE60" s="19"/>
-      <c r="BF60" s="19"/>
-      <c r="BG60" s="19"/>
-      <c r="BH60" s="19"/>
-      <c r="BI60" s="19"/>
-    </row>
-    <row r="61" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
@@ -2759,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>11</v>
       </c>
@@ -2779,7 +2342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>12</v>
       </c>
@@ -2819,7 +2382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>13</v>
       </c>
@@ -2839,72 +2402,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
+    <row r="67" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31">
         <v>2019</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="19"/>
-      <c r="X67" s="19"/>
-      <c r="Y67" s="19"/>
-      <c r="Z67" s="19"/>
-      <c r="AA67" s="19"/>
-      <c r="AB67" s="19"/>
-      <c r="AC67" s="19"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="19"/>
-      <c r="AH67" s="19"/>
-      <c r="AI67" s="19"/>
-      <c r="AJ67" s="19"/>
-      <c r="AK67" s="19"/>
-      <c r="AL67" s="19"/>
-      <c r="AM67" s="19"/>
-      <c r="AN67" s="19"/>
-      <c r="AO67" s="19"/>
-      <c r="AP67" s="19"/>
-      <c r="AQ67" s="19"/>
-      <c r="AR67" s="19"/>
-      <c r="AS67" s="19"/>
-      <c r="AT67" s="19"/>
-      <c r="AU67" s="19"/>
-      <c r="AV67" s="19"/>
-      <c r="AW67" s="19"/>
-      <c r="AX67" s="19"/>
-      <c r="AY67" s="19"/>
-      <c r="AZ67" s="19"/>
-      <c r="BA67" s="19"/>
-      <c r="BB67" s="19"/>
-      <c r="BC67" s="19"/>
-      <c r="BD67" s="19"/>
-      <c r="BE67" s="19"/>
-      <c r="BF67" s="19"/>
-      <c r="BG67" s="19"/>
-      <c r="BH67" s="19"/>
-      <c r="BI67" s="19"/>
-    </row>
-    <row r="68" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>7</v>
       </c>
@@ -2924,7 +2432,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>10</v>
       </c>
@@ -2944,7 +2452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>11</v>
       </c>
@@ -2964,7 +2472,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>9</v>
       </c>
@@ -2984,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>12</v>
       </c>
@@ -3004,7 +2512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>13</v>
       </c>
@@ -3024,72 +2532,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="34">
+    <row r="74" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="31">
         <v>2020</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
-      <c r="T74" s="19"/>
-      <c r="U74" s="19"/>
-      <c r="V74" s="19"/>
-      <c r="W74" s="19"/>
-      <c r="X74" s="19"/>
-      <c r="Y74" s="19"/>
-      <c r="Z74" s="19"/>
-      <c r="AA74" s="19"/>
-      <c r="AB74" s="19"/>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="19"/>
-      <c r="AF74" s="19"/>
-      <c r="AG74" s="19"/>
-      <c r="AH74" s="19"/>
-      <c r="AI74" s="19"/>
-      <c r="AJ74" s="19"/>
-      <c r="AK74" s="19"/>
-      <c r="AL74" s="19"/>
-      <c r="AM74" s="19"/>
-      <c r="AN74" s="19"/>
-      <c r="AO74" s="19"/>
-      <c r="AP74" s="19"/>
-      <c r="AQ74" s="19"/>
-      <c r="AR74" s="19"/>
-      <c r="AS74" s="19"/>
-      <c r="AT74" s="19"/>
-      <c r="AU74" s="19"/>
-      <c r="AV74" s="19"/>
-      <c r="AW74" s="19"/>
-      <c r="AX74" s="19"/>
-      <c r="AY74" s="19"/>
-      <c r="AZ74" s="19"/>
-      <c r="BA74" s="19"/>
-      <c r="BB74" s="19"/>
-      <c r="BC74" s="19"/>
-      <c r="BD74" s="19"/>
-      <c r="BE74" s="19"/>
-      <c r="BF74" s="19"/>
-      <c r="BG74" s="19"/>
-      <c r="BH74" s="19"/>
-      <c r="BI74" s="19"/>
-    </row>
-    <row r="75" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>7</v>
       </c>
@@ -3109,7 +2562,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>10</v>
       </c>
@@ -3129,7 +2582,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="77" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>9</v>
       </c>
@@ -3169,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>12</v>
       </c>
@@ -3189,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>13</v>
       </c>
@@ -3209,72 +2662,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="34">
+    <row r="81" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="31">
         <v>2021</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="19"/>
-      <c r="Y81" s="19"/>
-      <c r="Z81" s="19"/>
-      <c r="AA81" s="19"/>
-      <c r="AB81" s="19"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="19"/>
-      <c r="AE81" s="19"/>
-      <c r="AF81" s="19"/>
-      <c r="AG81" s="19"/>
-      <c r="AH81" s="19"/>
-      <c r="AI81" s="19"/>
-      <c r="AJ81" s="19"/>
-      <c r="AK81" s="19"/>
-      <c r="AL81" s="19"/>
-      <c r="AM81" s="19"/>
-      <c r="AN81" s="19"/>
-      <c r="AO81" s="19"/>
-      <c r="AP81" s="19"/>
-      <c r="AQ81" s="19"/>
-      <c r="AR81" s="19"/>
-      <c r="AS81" s="19"/>
-      <c r="AT81" s="19"/>
-      <c r="AU81" s="19"/>
-      <c r="AV81" s="19"/>
-      <c r="AW81" s="19"/>
-      <c r="AX81" s="19"/>
-      <c r="AY81" s="19"/>
-      <c r="AZ81" s="19"/>
-      <c r="BA81" s="19"/>
-      <c r="BB81" s="19"/>
-      <c r="BC81" s="19"/>
-      <c r="BD81" s="19"/>
-      <c r="BE81" s="19"/>
-      <c r="BF81" s="19"/>
-      <c r="BG81" s="19"/>
-      <c r="BH81" s="19"/>
-      <c r="BI81" s="19"/>
-    </row>
-    <row r="82" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>7</v>
       </c>
@@ -3294,7 +2692,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="83" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +2712,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="84" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>11</v>
       </c>
@@ -3334,7 +2732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
@@ -3354,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +2772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>13</v>
       </c>
@@ -3396,6 +2794,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3405,21 +2818,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ქობულეთი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ქობულეთი.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\სასტუმროები\სტუმრები\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\აჭარა ა.რ. +\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB4DDC-CD96-4386-920C-5752E82C5BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27915" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="ქობულეთი" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -69,14 +68,62 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ქობულეთის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ქობულეთის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +196,28 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,12 +310,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -258,60 +327,54 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -321,29 +384,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_სტუმრები" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_სტუმრები" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,25 +693,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="26" customWidth="1"/>
     <col min="2" max="4" width="20.5703125" style="28" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="28" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="17"/>
+    <col min="7" max="61" width="9.140625" style="16"/>
+    <col min="62" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" s="22" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -650,74 +722,123 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="U1" s="24"/>
-    </row>
-    <row r="2" spans="1:61" s="23" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+    </row>
+    <row r="2" spans="1:61" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-    </row>
-    <row r="3" spans="1:61" s="25" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+    </row>
+    <row r="3" spans="1:61" s="23" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -792,73 +913,73 @@
       <c r="BH3" s="7"/>
       <c r="BI3" s="6"/>
     </row>
-    <row r="4" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+    <row r="4" spans="1:61" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38">
         <v>2010</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="22"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="22"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Y4" s="22"/>
+      <c r="Y4" s="19"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
-      <c r="AD4" s="22"/>
+      <c r="AD4" s="19"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="22"/>
+      <c r="AI4" s="19"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
-      <c r="AN4" s="22"/>
+      <c r="AN4" s="19"/>
       <c r="AO4" s="8"/>
       <c r="AP4" s="8"/>
       <c r="AQ4" s="8"/>
       <c r="AR4" s="8"/>
-      <c r="AS4" s="22"/>
+      <c r="AS4" s="19"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="22"/>
+      <c r="AX4" s="19"/>
       <c r="AY4" s="8"/>
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
-      <c r="BC4" s="22"/>
+      <c r="BC4" s="19"/>
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
       <c r="BG4" s="8"/>
-      <c r="BH4" s="22"/>
+      <c r="BH4" s="19"/>
       <c r="BI4" s="8"/>
     </row>
-    <row r="5" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:61" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="10">
@@ -870,10 +991,10 @@
       <c r="D5" s="10">
         <v>124</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="10"/>
@@ -932,7 +1053,7 @@
       <c r="BH5" s="10"/>
       <c r="BI5" s="10"/>
     </row>
-    <row r="6" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -945,10 +1066,10 @@
       <c r="D6" s="12">
         <v>40</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
@@ -1007,7 +1128,7 @@
       <c r="BH6" s="12"/>
       <c r="BI6" s="12"/>
     </row>
-    <row r="7" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -1020,10 +1141,10 @@
       <c r="D7" s="12">
         <v>84</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="12"/>
@@ -1082,7 +1203,7 @@
       <c r="BH7" s="12"/>
       <c r="BI7" s="12"/>
     </row>
-    <row r="8" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1095,10 +1216,10 @@
       <c r="D8" s="12">
         <v>32</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="12"/>
@@ -1157,7 +1278,7 @@
       <c r="BH8" s="12"/>
       <c r="BI8" s="12"/>
     </row>
-    <row r="9" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -1170,10 +1291,10 @@
       <c r="D9" s="12">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="12"/>
@@ -1232,7 +1353,7 @@
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
     </row>
-    <row r="10" spans="1:61" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -1245,10 +1366,10 @@
       <c r="D10" s="15">
         <v>35</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="12"/>
@@ -1307,15 +1428,15 @@
       <c r="BH10" s="12"/>
       <c r="BI10" s="12"/>
     </row>
-    <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+    <row r="11" spans="1:61" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
         <v>2011</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1373,7 +1494,7 @@
       <c r="BI11" s="12"/>
     </row>
     <row r="12" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="10">
@@ -1385,10 +1506,10 @@
       <c r="D12" s="10">
         <v>211</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1405,10 +1526,10 @@
       <c r="D13" s="12">
         <v>167</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1425,10 +1546,10 @@
       <c r="D14" s="12">
         <v>44</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1445,10 +1566,10 @@
       <c r="D15" s="12">
         <v>7</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1465,14 +1586,14 @@
       <c r="D16" s="12">
         <v>11</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -1485,44 +1606,99 @@
       <c r="D17" s="15">
         <v>26</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+      <c r="E17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
         <v>2012</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AT18" s="17"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="17"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="17"/>
+      <c r="BI18" s="17"/>
+    </row>
+    <row r="19" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="10">
         <v>56851</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>56124</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>727</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
@@ -1535,14 +1711,14 @@
       <c r="D20" s="12">
         <v>447</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>11</v>
       </c>
@@ -1555,14 +1731,14 @@
       <c r="D21" s="12">
         <v>280</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
@@ -1575,14 +1751,14 @@
       <c r="D22" s="12">
         <v>134</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>12</v>
       </c>
@@ -1595,64 +1771,120 @@
       <c r="D23" s="12">
         <v>112</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31">
+      <c r="B24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
         <v>2013</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="17"/>
+      <c r="BE25" s="17"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+    </row>
+    <row r="26" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>56311</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="10">
         <v>56018</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="10">
         <v>293</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
@@ -1665,14 +1897,14 @@
       <c r="D27" s="12">
         <v>50</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>11</v>
       </c>
@@ -1685,14 +1917,14 @@
       <c r="D28" s="12">
         <v>243</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
@@ -1705,14 +1937,14 @@
       <c r="D29" s="12">
         <v>177</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>12</v>
       </c>
@@ -1725,64 +1957,119 @@
       <c r="D30" s="12">
         <v>9</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+      <c r="B31" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
         <v>2014</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="17"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17"/>
+      <c r="AT32" s="17"/>
+      <c r="AU32" s="17"/>
+      <c r="AV32" s="17"/>
+      <c r="AW32" s="17"/>
+      <c r="AX32" s="17"/>
+      <c r="AY32" s="17"/>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="17"/>
+      <c r="BC32" s="17"/>
+      <c r="BD32" s="17"/>
+      <c r="BE32" s="17"/>
+      <c r="BF32" s="17"/>
+      <c r="BG32" s="17"/>
+      <c r="BH32" s="17"/>
+      <c r="BI32" s="17"/>
+    </row>
+    <row r="33" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>55669</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="10">
         <v>54598</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="10">
         <v>1071</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>10</v>
       </c>
@@ -1795,14 +2082,14 @@
       <c r="D34" s="12">
         <v>955</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>11</v>
       </c>
@@ -1815,14 +2102,14 @@
       <c r="D35" s="12">
         <v>116</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
@@ -1835,14 +2122,14 @@
       <c r="D36" s="12">
         <v>28</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>12</v>
       </c>
@@ -1855,14 +2142,14 @@
       <c r="D37" s="12">
         <v>67</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>13</v>
       </c>
@@ -1875,44 +2162,99 @@
       <c r="D38" s="15">
         <v>21</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
+      <c r="E38" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34">
         <v>2015</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
+      <c r="AQ39" s="17"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
+      <c r="AT39" s="17"/>
+      <c r="AU39" s="17"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="17"/>
+      <c r="AY39" s="17"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="17"/>
+      <c r="BE39" s="17"/>
+      <c r="BF39" s="17"/>
+      <c r="BG39" s="17"/>
+      <c r="BH39" s="17"/>
+      <c r="BI39" s="17"/>
+    </row>
+    <row r="40" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>52090</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="10">
         <v>51756</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="10">
         <v>334</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>10</v>
       </c>
@@ -1925,14 +2267,14 @@
       <c r="D41" s="12">
         <v>268</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>11</v>
       </c>
@@ -1945,14 +2287,14 @@
       <c r="D42" s="12">
         <v>66</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>9</v>
       </c>
@@ -1965,14 +2307,14 @@
       <c r="D43" s="12">
         <v>1</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>12</v>
       </c>
@@ -1985,14 +2327,14 @@
       <c r="D44" s="12">
         <v>59</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>13</v>
       </c>
@@ -2005,44 +2347,99 @@
       <c r="D45" s="15">
         <v>6</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31">
+      <c r="E45" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34">
         <v>2016</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="17"/>
+      <c r="AU46" s="17"/>
+      <c r="AV46" s="17"/>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="17"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="17"/>
+      <c r="BC46" s="17"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="17"/>
+      <c r="BF46" s="17"/>
+      <c r="BG46" s="17"/>
+      <c r="BH46" s="17"/>
+      <c r="BI46" s="17"/>
+    </row>
+    <row r="47" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <v>65711</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="10">
         <v>65420</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="10">
         <v>291</v>
       </c>
-      <c r="E47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>10</v>
       </c>
@@ -2055,14 +2452,14 @@
       <c r="D48" s="12">
         <v>225</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>11</v>
       </c>
@@ -2075,14 +2472,14 @@
       <c r="D49" s="12">
         <v>66</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>9</v>
       </c>
@@ -2095,14 +2492,14 @@
       <c r="D50" s="12">
         <v>7</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>12</v>
       </c>
@@ -2115,14 +2512,14 @@
       <c r="D51" s="12">
         <v>37</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>13</v>
       </c>
@@ -2135,44 +2532,99 @@
       <c r="D52" s="15">
         <v>22</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31">
+      <c r="E52" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="34">
         <v>2017</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="17"/>
+      <c r="AH53" s="17"/>
+      <c r="AI53" s="17"/>
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="17"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="17"/>
+      <c r="AP53" s="17"/>
+      <c r="AQ53" s="17"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="17"/>
+      <c r="AT53" s="17"/>
+      <c r="AU53" s="17"/>
+      <c r="AV53" s="17"/>
+      <c r="AW53" s="17"/>
+      <c r="AX53" s="17"/>
+      <c r="AY53" s="17"/>
+      <c r="AZ53" s="17"/>
+      <c r="BA53" s="17"/>
+      <c r="BB53" s="17"/>
+      <c r="BC53" s="17"/>
+      <c r="BD53" s="17"/>
+      <c r="BE53" s="17"/>
+      <c r="BF53" s="17"/>
+      <c r="BG53" s="17"/>
+      <c r="BH53" s="17"/>
+      <c r="BI53" s="17"/>
+    </row>
+    <row r="54" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="10">
         <v>73151</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="10">
         <v>70755</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="10">
         <v>2396</v>
       </c>
-      <c r="E54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>10</v>
       </c>
@@ -2185,14 +2637,14 @@
       <c r="D55" s="12">
         <v>2363</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>11</v>
       </c>
@@ -2205,14 +2657,14 @@
       <c r="D56" s="12">
         <v>33</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>9</v>
       </c>
@@ -2225,14 +2677,14 @@
       <c r="D57" s="12">
         <v>4</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>12</v>
       </c>
@@ -2242,17 +2694,17 @@
       <c r="C58" s="12">
         <v>28110</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>13</v>
       </c>
@@ -2265,44 +2717,99 @@
       <c r="D59" s="15">
         <v>29</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31">
+      <c r="E59" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="34">
         <v>2018</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-    </row>
-    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="17"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="17"/>
+      <c r="AO60" s="17"/>
+      <c r="AP60" s="17"/>
+      <c r="AQ60" s="17"/>
+      <c r="AR60" s="17"/>
+      <c r="AS60" s="17"/>
+      <c r="AT60" s="17"/>
+      <c r="AU60" s="17"/>
+      <c r="AV60" s="17"/>
+      <c r="AW60" s="17"/>
+      <c r="AX60" s="17"/>
+      <c r="AY60" s="17"/>
+      <c r="AZ60" s="17"/>
+      <c r="BA60" s="17"/>
+      <c r="BB60" s="17"/>
+      <c r="BC60" s="17"/>
+      <c r="BD60" s="17"/>
+      <c r="BE60" s="17"/>
+      <c r="BF60" s="17"/>
+      <c r="BG60" s="17"/>
+      <c r="BH60" s="17"/>
+      <c r="BI60" s="17"/>
+    </row>
+    <row r="61" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="10">
         <v>83459</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="10">
         <v>83048</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="10">
         <v>386</v>
       </c>
-      <c r="E61" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="E61" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
@@ -2315,14 +2822,14 @@
       <c r="D62" s="12">
         <v>288</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>11</v>
       </c>
@@ -2335,14 +2842,14 @@
       <c r="D63" s="12">
         <v>98</v>
       </c>
-      <c r="E63" s="12" t="s">
+      <c r="E63" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
@@ -2355,14 +2862,14 @@
       <c r="D64" s="12">
         <v>3</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>12</v>
       </c>
@@ -2375,14 +2882,14 @@
       <c r="D65" s="12">
         <v>75</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="E65" s="32" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="12">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>13</v>
       </c>
@@ -2395,25 +2902,80 @@
       <c r="D66" s="15">
         <v>20</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31">
+      <c r="E66" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="34">
         <v>2019</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-    </row>
-    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
+      <c r="AL67" s="17"/>
+      <c r="AM67" s="17"/>
+      <c r="AN67" s="17"/>
+      <c r="AO67" s="17"/>
+      <c r="AP67" s="17"/>
+      <c r="AQ67" s="17"/>
+      <c r="AR67" s="17"/>
+      <c r="AS67" s="17"/>
+      <c r="AT67" s="17"/>
+      <c r="AU67" s="17"/>
+      <c r="AV67" s="17"/>
+      <c r="AW67" s="17"/>
+      <c r="AX67" s="17"/>
+      <c r="AY67" s="17"/>
+      <c r="AZ67" s="17"/>
+      <c r="BA67" s="17"/>
+      <c r="BB67" s="17"/>
+      <c r="BC67" s="17"/>
+      <c r="BD67" s="17"/>
+      <c r="BE67" s="17"/>
+      <c r="BF67" s="17"/>
+      <c r="BG67" s="17"/>
+      <c r="BH67" s="17"/>
+      <c r="BI67" s="17"/>
+    </row>
+    <row r="68" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="9">
@@ -2432,7 +2994,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>10</v>
       </c>
@@ -2452,7 +3014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>11</v>
       </c>
@@ -2472,7 +3034,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +3054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +3074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>13</v>
       </c>
@@ -2532,18 +3094,73 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31">
+    <row r="74" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="34">
         <v>2020</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-    </row>
-    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="17"/>
+      <c r="AI74" s="17"/>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+      <c r="AL74" s="17"/>
+      <c r="AM74" s="17"/>
+      <c r="AN74" s="17"/>
+      <c r="AO74" s="17"/>
+      <c r="AP74" s="17"/>
+      <c r="AQ74" s="17"/>
+      <c r="AR74" s="17"/>
+      <c r="AS74" s="17"/>
+      <c r="AT74" s="17"/>
+      <c r="AU74" s="17"/>
+      <c r="AV74" s="17"/>
+      <c r="AW74" s="17"/>
+      <c r="AX74" s="17"/>
+      <c r="AY74" s="17"/>
+      <c r="AZ74" s="17"/>
+      <c r="BA74" s="17"/>
+      <c r="BB74" s="17"/>
+      <c r="BC74" s="17"/>
+      <c r="BD74" s="17"/>
+      <c r="BE74" s="17"/>
+      <c r="BF74" s="17"/>
+      <c r="BG74" s="17"/>
+      <c r="BH74" s="17"/>
+      <c r="BI74" s="17"/>
+    </row>
+    <row r="75" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B75" s="9">
@@ -2562,7 +3179,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>10</v>
       </c>
@@ -2582,7 +3199,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>11</v>
       </c>
@@ -2602,7 +3219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>9</v>
       </c>
@@ -2615,14 +3232,14 @@
       <c r="D78" s="12">
         <v>7</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>12</v>
       </c>
@@ -2632,7 +3249,7 @@
       <c r="C79" s="12">
         <v>2781</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="12">
@@ -2642,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>13</v>
       </c>
@@ -2652,28 +3269,83 @@
       <c r="C80" s="15">
         <v>1856</v>
       </c>
-      <c r="D80" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31">
+      <c r="D80" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="34">
         <v>2021</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-    </row>
-    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="20" t="s">
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="17"/>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="17"/>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="17"/>
+      <c r="AI81" s="17"/>
+      <c r="AJ81" s="17"/>
+      <c r="AK81" s="17"/>
+      <c r="AL81" s="17"/>
+      <c r="AM81" s="17"/>
+      <c r="AN81" s="17"/>
+      <c r="AO81" s="17"/>
+      <c r="AP81" s="17"/>
+      <c r="AQ81" s="17"/>
+      <c r="AR81" s="17"/>
+      <c r="AS81" s="17"/>
+      <c r="AT81" s="17"/>
+      <c r="AU81" s="17"/>
+      <c r="AV81" s="17"/>
+      <c r="AW81" s="17"/>
+      <c r="AX81" s="17"/>
+      <c r="AY81" s="17"/>
+      <c r="AZ81" s="17"/>
+      <c r="BA81" s="17"/>
+      <c r="BB81" s="17"/>
+      <c r="BC81" s="17"/>
+      <c r="BD81" s="17"/>
+      <c r="BE81" s="17"/>
+      <c r="BF81" s="17"/>
+      <c r="BG81" s="17"/>
+      <c r="BH81" s="17"/>
+      <c r="BI81" s="17"/>
+    </row>
+    <row r="82" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="9">
@@ -2692,7 +3364,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>10</v>
       </c>
@@ -2712,7 +3384,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>11</v>
       </c>
@@ -2732,7 +3404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>12</v>
       </c>
@@ -2772,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>13</v>
       </c>
@@ -2792,8 +3464,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="88" spans="1:61" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A32:F32"/>
